--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1162,6 +1162,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5509,13 +5513,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5566,7 +5570,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5590,7 +5594,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5601,7 +5605,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5630,7 +5634,7 @@
         <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>140</v>
@@ -5683,7 +5687,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5707,7 +5711,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5718,11 +5722,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5744,10 +5748,10 @@
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5802,7 +5806,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5837,7 +5841,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5860,13 +5864,13 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5917,7 +5921,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5926,7 +5930,7 @@
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
@@ -5938,10 +5942,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5952,7 +5956,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5975,13 +5979,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6032,7 +6036,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6041,7 +6045,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6053,10 +6057,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6067,7 +6071,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6093,16 +6097,16 @@
         <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6130,10 +6134,10 @@
         <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6151,7 +6155,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6169,10 +6173,10 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>300</v>
@@ -6186,7 +6190,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6212,16 +6216,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6249,10 +6253,10 @@
         <v>204</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6270,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6288,10 +6292,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>300</v>
@@ -6305,7 +6309,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6328,17 +6332,17 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6387,7 +6391,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6415,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6422,7 +6426,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6445,13 +6449,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6502,7 +6506,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6523,10 +6527,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6537,7 +6541,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6560,16 +6564,16 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6619,7 +6623,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6640,10 +6644,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6654,7 +6658,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6677,16 +6681,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6736,7 +6740,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6757,10 +6761,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6771,7 +6775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6797,16 +6801,16 @@
         <v>346</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6855,7 +6859,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6876,10 +6880,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6890,7 +6894,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6913,13 +6917,13 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6970,7 +6974,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6994,7 +6998,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7005,7 +7009,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7034,7 +7038,7 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>140</v>
@@ -7087,7 +7091,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7111,7 +7115,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7122,11 +7126,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7148,10 +7152,10 @@
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7206,7 +7210,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7241,7 +7245,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7267,13 +7271,13 @@
         <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>203</v>
@@ -7325,7 +7329,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>91</v>
@@ -7343,7 +7347,7 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>209</v>
@@ -7360,7 +7364,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7386,13 +7390,13 @@
         <v>270</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>274</v>
@@ -7444,7 +7448,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7462,7 +7466,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>277</v>
@@ -7479,7 +7483,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7505,13 +7509,13 @@
         <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>284</v>
@@ -7563,7 +7567,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7598,7 +7602,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7627,13 +7631,13 @@
         <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7682,7 +7686,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7717,7 +7721,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7743,16 +7747,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7801,7 +7805,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1015,20 +1015,20 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-Observation.codeにあるコードだけでは暗黙的に部位はわからない場合にだけ使用される。多くのシステムでは、これはデータ中の部分情報ではなく関連する観察（観測）として記述さえる場合がある。
-もしBodySiteを個別のリソースとして処理する必要があるような使用例（たとえば、個別に識別して追跡するなど）においては、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1046,22 +1046,19 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.
-Observation.codeのコードでは暗黙的に示されない場合にだけ使用する。</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1812,7 +1809,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4965,9 +4962,11 @@
       <c r="W27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="X27" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5003,24 +5002,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5046,7 +5045,7 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>321</v>
@@ -5082,9 +5081,11 @@
       <c r="W28" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X28" s="2"/>
+      <c r="X28" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5102,7 +5103,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5123,10 +5124,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5137,7 +5138,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5160,16 +5161,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5219,7 +5220,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5237,24 +5238,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5277,16 +5278,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5336,7 +5337,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5354,24 +5355,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5394,19 +5395,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
@@ -5455,7 +5456,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5467,7 +5468,7 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
@@ -5476,10 +5477,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5490,7 +5491,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5513,13 +5514,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5570,7 +5571,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5594,7 +5595,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5605,7 +5606,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5634,7 +5635,7 @@
         <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>140</v>
@@ -5687,7 +5688,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5711,7 +5712,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5722,11 +5723,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5748,10 +5749,10 @@
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5806,7 +5807,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5841,7 +5842,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5864,13 +5865,13 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5921,7 +5922,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5930,7 +5931,7 @@
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
@@ -5942,10 +5943,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5956,7 +5957,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5979,13 +5980,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6036,7 +6037,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6045,7 +6046,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6057,10 +6058,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6071,7 +6072,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6097,16 +6098,16 @@
         <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6134,10 +6135,10 @@
         <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6155,7 +6156,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6173,10 +6174,10 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>300</v>
@@ -6190,7 +6191,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6216,16 +6217,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6253,10 +6254,10 @@
         <v>204</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6274,7 +6275,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6292,10 +6293,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>300</v>
@@ -6309,7 +6310,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6332,17 +6333,17 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6391,7 +6392,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6415,7 +6416,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6426,7 +6427,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6449,13 +6450,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6506,7 +6507,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6527,10 +6528,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6541,7 +6542,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6564,16 +6565,16 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6623,7 +6624,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6644,10 +6645,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6658,7 +6659,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6681,16 +6682,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6740,7 +6741,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6761,10 +6762,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6775,7 +6776,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6798,19 +6799,19 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6859,7 +6860,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6880,10 +6881,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6894,7 +6895,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6917,13 +6918,13 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6974,7 +6975,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6998,7 +6999,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7009,7 +7010,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7038,7 +7039,7 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>140</v>
@@ -7091,7 +7092,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7115,7 +7116,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7126,11 +7127,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7152,10 +7153,10 @@
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7210,7 +7211,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7245,7 +7246,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7271,13 +7272,13 @@
         <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>203</v>
@@ -7329,7 +7330,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>91</v>
@@ -7347,7 +7348,7 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>209</v>
@@ -7364,7 +7365,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7390,13 +7391,13 @@
         <v>270</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>274</v>
@@ -7448,7 +7449,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7466,7 +7467,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>277</v>
@@ -7483,7 +7484,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7509,13 +7510,13 @@
         <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>284</v>
@@ -7567,7 +7568,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7602,7 +7603,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7631,13 +7632,13 @@
         <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7686,7 +7687,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7721,7 +7722,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7747,16 +7748,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7805,7 +7806,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7826,10 +7827,10 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
